--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N2">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O2">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P2">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q2">
-        <v>37.11423014481556</v>
+        <v>27.49184760064411</v>
       </c>
       <c r="R2">
-        <v>334.02807130334</v>
+        <v>247.426628405797</v>
       </c>
       <c r="S2">
-        <v>0.2064276069824563</v>
+        <v>0.1766004419747829</v>
       </c>
       <c r="T2">
-        <v>0.2293478054342051</v>
+        <v>0.1948172135353251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.203413</v>
       </c>
       <c r="O3">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P3">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q3">
-        <v>8.562343761583222</v>
+        <v>8.130770682142556</v>
       </c>
       <c r="R3">
-        <v>77.06109385424901</v>
+        <v>73.176936139283</v>
       </c>
       <c r="S3">
-        <v>0.04762335432981325</v>
+        <v>0.0522299452885204</v>
       </c>
       <c r="T3">
-        <v>0.05291110022840345</v>
+        <v>0.0576175930843082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H4">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I4">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J4">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N4">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O4">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P4">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q4">
-        <v>5.861378115510444</v>
+        <v>8.404175090736889</v>
       </c>
       <c r="R4">
-        <v>52.75240303959399</v>
+        <v>75.63757581663201</v>
       </c>
       <c r="S4">
-        <v>0.03260071011261907</v>
+        <v>0.05398622373502547</v>
       </c>
       <c r="T4">
-        <v>0.03622045243474301</v>
+        <v>0.05955503598826835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H5">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I5">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J5">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N5">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O5">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P5">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q5">
-        <v>8.526904040214168</v>
+        <v>1.912172480708834</v>
       </c>
       <c r="R5">
-        <v>51.161424241285</v>
+        <v>11.473034884253</v>
       </c>
       <c r="S5">
-        <v>0.04742624026208792</v>
+        <v>0.01228329612947823</v>
       </c>
       <c r="T5">
-        <v>0.03512806671260664</v>
+        <v>0.009033565632547669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H6">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I6">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J6">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N6">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O6">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P6">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q6">
-        <v>14.06734896161189</v>
+        <v>6.168563023838221</v>
       </c>
       <c r="R6">
-        <v>126.606140654507</v>
+        <v>55.517067214544</v>
       </c>
       <c r="S6">
-        <v>0.07824193500449918</v>
+        <v>0.03962523625853398</v>
       </c>
       <c r="T6">
-        <v>0.08692934219662134</v>
+        <v>0.04371267720082392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
         <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J7">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N7">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O7">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P7">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q7">
-        <v>26.83753360107556</v>
+        <v>20.93471340899244</v>
       </c>
       <c r="R7">
-        <v>241.53780240968</v>
+        <v>188.412420680932</v>
       </c>
       <c r="S7">
-        <v>0.1492691029010922</v>
+        <v>0.1344791261158039</v>
       </c>
       <c r="T7">
-        <v>0.1658428427763905</v>
+        <v>0.1483509799612362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
         <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J8">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>27.203413</v>
       </c>
       <c r="O8">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P8">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q8">
-        <v>6.191484708394223</v>
+        <v>6.191484708394222</v>
       </c>
       <c r="R8">
-        <v>55.72336237554801</v>
+        <v>55.723362375548</v>
       </c>
       <c r="S8">
-        <v>0.03443674749645389</v>
+        <v>0.03977247916785745</v>
       </c>
       <c r="T8">
-        <v>0.03826034986335324</v>
+        <v>0.04387510857974044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
         <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J9">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N9">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O9">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P9">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q9">
-        <v>4.238399436276445</v>
+        <v>6.399678898243556</v>
       </c>
       <c r="R9">
-        <v>38.145594926488</v>
+        <v>57.597110084192</v>
       </c>
       <c r="S9">
-        <v>0.02357377883503142</v>
+        <v>0.04110986421662051</v>
       </c>
       <c r="T9">
-        <v>0.02619123730899647</v>
+        <v>0.04535044819786568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
         <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J10">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N10">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O10">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P10">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q10">
-        <v>6.165858022636668</v>
+        <v>1.456096492811334</v>
       </c>
       <c r="R10">
-        <v>36.99514813582001</v>
+        <v>8.736578956868001</v>
       </c>
       <c r="S10">
-        <v>0.03429421307245581</v>
+        <v>0.009353583212151522</v>
       </c>
       <c r="T10">
-        <v>0.02540132631235775</v>
+        <v>0.006878952274356351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
         <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J11">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N11">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O11">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P11">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q11">
-        <v>10.17218864468489</v>
+        <v>4.697287025784888</v>
       </c>
       <c r="R11">
-        <v>91.549697802164</v>
+        <v>42.27558323206399</v>
       </c>
       <c r="S11">
-        <v>0.05657723604943854</v>
+        <v>0.03017414387298543</v>
       </c>
       <c r="T11">
-        <v>0.06285915491223278</v>
+        <v>0.03328668130393704</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H12">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I12">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J12">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N12">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O12">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P12">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q12">
-        <v>2.877100846806667</v>
+        <v>6.787207999774333</v>
       </c>
       <c r="R12">
-        <v>25.89390762126</v>
+        <v>61.084871997969</v>
       </c>
       <c r="S12">
-        <v>0.0160022999409153</v>
+        <v>0.0435992498556862</v>
       </c>
       <c r="T12">
-        <v>0.01777907726102132</v>
+        <v>0.0480966201111097</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H13">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I13">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J13">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.203413</v>
       </c>
       <c r="O13">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P13">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q13">
-        <v>0.6637542093956667</v>
+        <v>2.007330777465667</v>
       </c>
       <c r="R13">
-        <v>5.973787884561</v>
+        <v>18.065976997191</v>
       </c>
       <c r="S13">
-        <v>0.003691769774974557</v>
+        <v>0.01289456815124044</v>
       </c>
       <c r="T13">
-        <v>0.004101676652826299</v>
+        <v>0.01422467468866649</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H14">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I14">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J14">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N14">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O14">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P14">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q14">
-        <v>0.4543749358073333</v>
+        <v>2.074829063362667</v>
       </c>
       <c r="R14">
-        <v>4.089374422265999</v>
+        <v>18.673461570264</v>
       </c>
       <c r="S14">
-        <v>0.002527212077565273</v>
+        <v>0.01332815949421264</v>
       </c>
       <c r="T14">
-        <v>0.002807815060829886</v>
+        <v>0.01470299204906668</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H15">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I15">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J15">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N15">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O15">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P15">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q15">
-        <v>0.6610069167275</v>
+        <v>0.4720785793135001</v>
       </c>
       <c r="R15">
-        <v>3.966041500365</v>
+        <v>2.832471475881</v>
       </c>
       <c r="S15">
-        <v>0.003676489462033746</v>
+        <v>0.003032509381131535</v>
       </c>
       <c r="T15">
-        <v>0.00272313315111669</v>
+        <v>0.002230213473403567</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H16">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I16">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J16">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N16">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O16">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P16">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q16">
-        <v>1.090503061813666</v>
+        <v>1.522899475898666</v>
       </c>
       <c r="R16">
-        <v>9.814527556322998</v>
+        <v>13.706095283088</v>
       </c>
       <c r="S16">
-        <v>0.006065326872708476</v>
+        <v>0.009782708111642838</v>
       </c>
       <c r="T16">
-        <v>0.006738776018534296</v>
+        <v>0.01079181860378253</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H17">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I17">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J17">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N17">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O17">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P17">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q17">
-        <v>17.29636824191333</v>
+        <v>20.2739206240385</v>
       </c>
       <c r="R17">
-        <v>103.77820945148</v>
+        <v>121.643523744231</v>
       </c>
       <c r="S17">
-        <v>0.09620158876350222</v>
+        <v>0.1302343660119439</v>
       </c>
       <c r="T17">
-        <v>0.07125540226819323</v>
+        <v>0.09577890824912524</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H18">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I18">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J18">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.203413</v>
       </c>
       <c r="O18">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P18">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q18">
-        <v>3.990314500296333</v>
+        <v>5.996053878101501</v>
       </c>
       <c r="R18">
-        <v>23.941887001778</v>
+        <v>35.97632326860901</v>
       </c>
       <c r="S18">
-        <v>0.0221939420591385</v>
+        <v>0.03851708260424545</v>
       </c>
       <c r="T18">
-        <v>0.01643879575865036</v>
+        <v>0.02832680984094222</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H19">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I19">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J19">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N19">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O19">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P19">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q19">
-        <v>2.731581765144667</v>
+        <v>6.197676532156001</v>
       </c>
       <c r="R19">
-        <v>16.389490590868</v>
+        <v>37.18605919293601</v>
       </c>
       <c r="S19">
-        <v>0.01519292963522495</v>
+        <v>0.03981225382501561</v>
       </c>
       <c r="T19">
-        <v>0.01125322696542643</v>
+        <v>0.02927932406065038</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H20">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I20">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J20">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N20">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O20">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P20">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q20">
-        <v>3.9737985044425</v>
+        <v>1.41013560297975</v>
       </c>
       <c r="R20">
-        <v>15.89519401777</v>
+        <v>5.640542411919001</v>
       </c>
       <c r="S20">
-        <v>0.02210208086498908</v>
+        <v>0.009058342471124654</v>
       </c>
       <c r="T20">
-        <v>0.01091383682425856</v>
+        <v>0.00444121460409528</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H21">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I21">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J21">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N21">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O21">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P21">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q21">
-        <v>6.555815569342331</v>
+        <v>4.549019728552</v>
       </c>
       <c r="R21">
-        <v>39.33489341605399</v>
+        <v>27.294118371312</v>
       </c>
       <c r="S21">
-        <v>0.03646313865375186</v>
+        <v>0.02922171351609952</v>
       </c>
       <c r="T21">
-        <v>0.02700782436266499</v>
+        <v>0.02149067026965861</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H22">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I22">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J22">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N22">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O22">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P22">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q22">
-        <v>5.887970368257777</v>
+        <v>6.644914217325333</v>
       </c>
       <c r="R22">
-        <v>52.99173331432</v>
+        <v>59.80422795592799</v>
       </c>
       <c r="S22">
-        <v>0.03274861497491814</v>
+        <v>0.04268519179615556</v>
       </c>
       <c r="T22">
-        <v>0.03638477956170633</v>
+        <v>0.04708827470621715</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H23">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I23">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J23">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.203413</v>
       </c>
       <c r="O23">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P23">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q23">
-        <v>1.358369179539111</v>
+        <v>1.965247097554667</v>
       </c>
       <c r="R23">
-        <v>12.225322615852</v>
+        <v>17.687223877992</v>
       </c>
       <c r="S23">
-        <v>0.007555185653504674</v>
+        <v>0.01262423359315007</v>
       </c>
       <c r="T23">
-        <v>0.008394057726138106</v>
+        <v>0.01392645445353826</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H24">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I24">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J24">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N24">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O24">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P24">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q24">
-        <v>0.9298756979902221</v>
+        <v>2.031330282218667</v>
       </c>
       <c r="R24">
-        <v>8.368881281911998</v>
+        <v>18.281972539968</v>
       </c>
       <c r="S24">
-        <v>0.005171925010387864</v>
+        <v>0.01304873469574203</v>
       </c>
       <c r="T24">
-        <v>0.00574617740496088</v>
+        <v>0.01439474389282205</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H25">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I25">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J25">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N25">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O25">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P25">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q25">
-        <v>1.352746860863333</v>
+        <v>0.4621814542120001</v>
       </c>
       <c r="R25">
-        <v>8.11648116518</v>
+        <v>2.773088725272</v>
       </c>
       <c r="S25">
-        <v>0.00752391458078122</v>
+        <v>0.002968932836819407</v>
       </c>
       <c r="T25">
-        <v>0.005572876362812083</v>
+        <v>0.002183457058864648</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H26">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I26">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J26">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N26">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O26">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P26">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q26">
-        <v>2.231708256448444</v>
+        <v>1.490971895850667</v>
       </c>
       <c r="R26">
-        <v>20.08537430803599</v>
+        <v>13.418747062656</v>
       </c>
       <c r="S26">
-        <v>0.01241265662965651</v>
+        <v>0.009577613684030414</v>
       </c>
       <c r="T26">
-        <v>0.01379086644095041</v>
+        <v>0.01056556817964837</v>
       </c>
     </row>
   </sheetData>
